--- a/doc/驱动器通讯协议.xlsx
+++ b/doc/驱动器通讯协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通讯速度:9600 bp(RS485)s,  250K bps(CAN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校验计算暂时空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判断类型: 1-"&gt;"; 2-"="; 3-"&lt;";   结果: 条件满足:1, 条件不满足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,14 +259,22 @@
   </si>
   <si>
     <t>电流档位:1-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯速度:9600 bp(RS485)s,  250K bps(CAN) 数据长度为8个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断类型: 1-"&gt;"; 2-"="; 3-"&lt;";   结果: 条件满足:1, 条件不满足:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -371,15 +371,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,9 +494,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,6 +529,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,14 +705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -683,25 +721,25 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -727,14 +765,14 @@
         <v>16</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -760,8 +798,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -770,30 +808,30 @@
         <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>26</v>
@@ -812,11 +850,11 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -825,30 +863,30 @@
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>26</v>
@@ -867,11 +905,11 @@
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
@@ -880,30 +918,30 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>26</v>
@@ -922,31 +960,31 @@
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>26</v>
@@ -959,51 +997,51 @@
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -1012,36 +1050,36 @@
         <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -1054,12 +1092,12 @@
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1070,46 +1108,46 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="23.25" customHeight="1">
+    <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="25" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>26</v>
@@ -1128,17 +1166,17 @@
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="27" spans="1:12" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>17</v>
@@ -1147,22 +1185,22 @@
         <v>26</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="28" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>18</v>
@@ -1184,17 +1222,17 @@
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="30" spans="1:12" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>17</v>
@@ -1203,22 +1241,22 @@
         <v>26</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="31" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>18</v>
@@ -1240,20 +1278,20 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
@@ -1269,15 +1307,15 @@
       <c r="I33" s="9"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="34" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>18</v>
@@ -1299,14 +1337,14 @@
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -1315,16 +1353,16 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="37" spans="1:12" ht="23.25" customHeight="1">
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>17</v>
@@ -1338,15 +1376,15 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="38" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>18</v>
@@ -1368,14 +1406,14 @@
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -1383,17 +1421,17 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="41" spans="1:12" ht="23.25" customHeight="1">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>17</v>
@@ -1407,15 +1445,15 @@
       <c r="I41" s="9"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="42" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>18</v>
@@ -1437,28 +1475,28 @@
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="45" spans="1:12" ht="23.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>17</v>
@@ -1472,15 +1510,15 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="23.25" customHeight="1">
+    <row r="46" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>18</v>
@@ -1502,77 +1540,67 @@
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A37:B38"/>
     <mergeCell ref="A41:B42"/>
     <mergeCell ref="A45:B46"/>
     <mergeCell ref="C35:J35"/>
     <mergeCell ref="C39:I39"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="F11:I11"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
@@ -1581,28 +1609,38 @@
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F45:I45"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F37:I37"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F27:I27"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A33:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,12 +1649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1625,12 +1663,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/驱动器通讯协议.xlsx
+++ b/doc/驱动器通讯协议.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,22 @@
   </si>
   <si>
     <t>判断类型: 1-"&gt;"; 2-"="; 3-"&lt;";   结果: 条件满足:1, 条件不满足:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断的数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -331,13 +347,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,28 +509,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -722,24 +926,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -769,10 +973,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,824 +1004,976 @@
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="6" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="6" t="s">
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
+      <c r="G24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="10" t="s">
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
+      <c r="C32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="6" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6" t="s">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="6" t="s">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6" t="s">
+      <c r="E41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10" t="s">
+    <row r="42" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="6" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="9" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="s">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="6" t="s">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6" t="s">
+      <c r="E45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10" t="s">
+    <row r="46" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="9" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
+      <c r="C49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="C53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A32:B32"/>
+  <mergeCells count="52">
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="A34:B35"/>
     <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A40:B41"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="A15:B16"/>
@@ -1625,22 +1981,21 @@
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="A52:B53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/驱动器通讯协议.xlsx
+++ b/doc/驱动器通讯协议.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Flash存储" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="120">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据低位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>通讯速度:9600 bp(RS485)s,  250K bps(CAN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>校验计算暂时空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +226,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>判断类型: 1-"&gt;"; 2-"="; 3-"&lt;";   结果: 条件满足:1, 条件不满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0x01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置最大运行距离(单位mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置值: 0-设置电流的1/2,  1-设置电流的1/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,19 +262,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通讯速度:9600 bp(RS485)s,  250K bps(CAN) 数据长度为8个字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断类型: 1-"&gt;"; 2-"="; 3-"&lt;";   结果: 条件满足:1, 条件不满足:0</t>
+    <t>0x00:成功;0x55:忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存运行参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页内地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大运行距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>262设置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流档位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考电压边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电流控制值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲控制方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲控制方式:0x01--外部脉冲控制; 其他:内部脉冲控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存运行参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存电机参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正方向设置最大运行距离(单位mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负方向设置最大运行距离(单位mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断的数值(0或者1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器逻辑方向(1:正,0负)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据3</t>
+  </si>
+  <si>
+    <t>数据4</t>
+  </si>
+  <si>
+    <t>数据5</t>
+  </si>
+  <si>
+    <t>程序编号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序编号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序编号3</t>
+  </si>
+  <si>
+    <t>程序编号4</t>
+  </si>
+  <si>
+    <t>程序编号5</t>
+  </si>
+  <si>
+    <t>几套程序存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置加速时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置减速时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正方向设置最大运行距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负方向设置最大运行距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲控制方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器逻辑方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电机细分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电机电流档位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置参考电压边界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置智能电流控制值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,7 +520,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -331,13 +552,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,54 +635,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -462,7 +732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,10 +764,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,7 +798,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,74 +973,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="11" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="11"/>
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -798,826 +1066,1546 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="11" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="C17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="C22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A25" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A30" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+    <row r="36" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A36" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="s">
+      <c r="E37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A40" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6" t="s">
-        <v>35</v>
+    </row>
+    <row r="41" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="6" t="s">
+    </row>
+    <row r="44" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A47" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="55" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A55" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
+    <row r="59" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A59" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6" t="s">
+      <c r="D59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="11" t="s">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A63" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6" t="s">
+      <c r="E64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+    </row>
+    <row r="67" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A67" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="6" t="s">
+      <c r="L67" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="s">
+      <c r="D68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+    <row r="69" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+    </row>
+    <row r="70" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A70" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A73" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+    </row>
+    <row r="74" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="15">
+        <v>9</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+    </row>
+    <row r="75" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="15">
+        <v>8</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+    </row>
+    <row r="76" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="15">
+        <v>7</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+    </row>
+    <row r="77" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="15">
+        <v>6</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+    </row>
+    <row r="78" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="15">
+        <v>5</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+    </row>
+    <row r="79" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="15">
+        <v>4</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+    </row>
+    <row r="80" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="15">
+        <v>3</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+    </row>
+    <row r="81" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="15">
+        <v>2</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="18"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="15">
+        <v>1</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A83" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" s="15">
+        <v>1</v>
+      </c>
+      <c r="E83" s="24">
+        <v>0</v>
+      </c>
+      <c r="F83" s="24">
+        <v>0</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15">
+        <v>0</v>
+      </c>
+      <c r="I83" s="15">
+        <v>0</v>
+      </c>
+      <c r="J83" s="15">
+        <v>0</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="23.25" customHeight="1">
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
+  <mergeCells count="70">
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="A73:B82"/>
+    <mergeCell ref="C73:C82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F20:I20"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="A15:B16"/>
@@ -1625,22 +2613,18 @@
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A40:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,13 +2633,430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="19"/>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="19"/>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="19"/>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="19"/>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="19"/>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="19"/>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="19"/>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="19"/>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="19"/>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="C23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="C25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="C26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="C27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="C28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="C29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="C30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="C32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1663,12 +3064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
